--- a/data/trans_orig/Q20C_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q20C_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>2691</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>795</v>
+        <v>826</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4609</v>
+        <v>5246</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4276538139945205</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1263615154806864</v>
+        <v>0.1312247926989532</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.732352230204166</v>
+        <v>0.8335625023697923</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>2955</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6801</v>
+        <v>6813</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2361322512470998</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07071681945195045</v>
+        <v>0.07056804179145976</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.543461013812839</v>
+        <v>0.5444009956594839</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -786,19 +786,19 @@
         <v>5646</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2664</v>
+        <v>2623</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9672</v>
+        <v>10352</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.30021714386895</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1416505113912557</v>
+        <v>0.1394503981612641</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5142270276429138</v>
+        <v>0.5503817587912444</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4569</v>
+        <v>4567</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2999681198438605</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7260722658249669</v>
+        <v>0.7257907719154659</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -836,19 +836,19 @@
         <v>4771</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1858</v>
+        <v>998</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8444</v>
+        <v>7865</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3812665249826416</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1484697477995569</v>
+        <v>0.07974241089852671</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6747652796347222</v>
+        <v>0.6284928733280812</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -857,19 +857,19 @@
         <v>6659</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2959</v>
+        <v>2870</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10902</v>
+        <v>10579</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3540633240014684</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.157341071893961</v>
+        <v>0.1526000253679484</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5796411267075364</v>
+        <v>0.5624645243682173</v>
       </c>
     </row>
     <row r="6">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4834</v>
+        <v>4872</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07795143854467607</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3863008965411514</v>
+        <v>0.3893066092893605</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4005</v>
+        <v>4242</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05186816365284357</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2129667471677461</v>
+        <v>0.2255666693208211</v>
       </c>
     </row>
     <row r="7">
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4413</v>
+        <v>4396</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.272378066161619</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7011977592091858</v>
+        <v>0.6986333891663437</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -970,19 +970,19 @@
         <v>3812</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>909</v>
+        <v>940</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7671</v>
+        <v>7684</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3046497852255826</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07266644090091247</v>
+        <v>0.07508369358187067</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6129956605334033</v>
+        <v>0.6140529003036547</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -991,19 +991,19 @@
         <v>5527</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2609</v>
+        <v>2593</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10343</v>
+        <v>10140</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.293851368476738</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.138704033657232</v>
+        <v>0.1378759557460207</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5499469356009095</v>
+        <v>0.5391312536762846</v>
       </c>
     </row>
     <row r="8">
@@ -1095,19 +1095,19 @@
         <v>4428</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1035</v>
+        <v>1590</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8539</v>
+        <v>8636</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3457111040855749</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08077924063018356</v>
+        <v>0.1241635228659144</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6667091667638319</v>
+        <v>0.6742711924587473</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1116,19 +1116,19 @@
         <v>3919</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>990</v>
+        <v>963</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8700</v>
+        <v>7747</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2263920345018299</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05717476064568609</v>
+        <v>0.05563516578889271</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5025957383704677</v>
+        <v>0.4475340477523184</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -1137,19 +1137,19 @@
         <v>8347</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4116</v>
+        <v>4032</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14536</v>
+        <v>13678</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2771327854005624</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1366761313355812</v>
+        <v>0.1338604203133306</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4826499960234157</v>
+        <v>0.4541615989765602</v>
       </c>
     </row>
     <row r="10">
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5655</v>
+        <v>5142</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1512924128983698</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4414854196924316</v>
+        <v>0.4014902570184473</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4947</v>
+        <v>4211</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05852500253628844</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2858158430290828</v>
+        <v>0.2432617125926212</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1208,19 +1208,19 @@
         <v>2951</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8020</v>
+        <v>7579</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09797458990839882</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03062369732138935</v>
+        <v>0.03040120514292884</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2662846838458777</v>
+        <v>0.2516482624643452</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>4613</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1459</v>
+        <v>1714</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7904</v>
+        <v>8335</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3601697872656892</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1139303721745177</v>
+        <v>0.1337862685015748</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6171001038524859</v>
+        <v>0.6507933685750816</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1258,19 +1258,19 @@
         <v>2599</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6529</v>
+        <v>6488</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1501221979239919</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04528270934477386</v>
+        <v>0.04459326893096379</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3771857160166391</v>
+        <v>0.374829140655678</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1279,19 +1279,19 @@
         <v>7212</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3512</v>
+        <v>3522</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12551</v>
+        <v>13039</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2394454925561708</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1166164667399924</v>
+        <v>0.1169424898501198</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4167429835789785</v>
+        <v>0.4329446724202758</v>
       </c>
     </row>
     <row r="12">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4944</v>
+        <v>4850</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1428266957503661</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3860206088835699</v>
+        <v>0.3786859897138515</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1329,19 +1329,19 @@
         <v>9779</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5692</v>
+        <v>5860</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13588</v>
+        <v>13615</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5649607650378898</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3288360897694807</v>
+        <v>0.3385059375783844</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7849896879584845</v>
+        <v>0.7865640864012368</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -1350,19 +1350,19 @@
         <v>11609</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6735</v>
+        <v>6628</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17782</v>
+        <v>16977</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.385447132134868</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2236159366157859</v>
+        <v>0.2200798303895475</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5904078876170299</v>
+        <v>0.5636663751868155</v>
       </c>
     </row>
     <row r="13">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3785</v>
+        <v>3811</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08732094761656017</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3624129168200654</v>
+        <v>0.3648428411997147</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3680</v>
+        <v>4140</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05247724588297924</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2403769437078338</v>
+        <v>0.2704571958946996</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5432</v>
+        <v>5421</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06660936394042605</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2109110488466044</v>
+        <v>0.2105135344100374</v>
       </c>
     </row>
     <row r="15">
@@ -1538,19 +1538,19 @@
         <v>2839</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6849</v>
+        <v>6734</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1854584773436093</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05653990435495982</v>
+        <v>0.05642928912851141</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.447386961336711</v>
+        <v>0.43988294317367</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -1562,16 +1562,16 @@
         <v>863</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>7076</v>
+        <v>6808</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.110239112977157</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03351139005725618</v>
+        <v>0.0335047697968416</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2747464048229916</v>
+        <v>0.2643507288647207</v>
       </c>
     </row>
     <row r="16">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5173</v>
+        <v>5954</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2001718952434049</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4952299143081253</v>
+        <v>0.57001173796642</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3921</v>
+        <v>3890</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06166637988713147</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.256149258288974</v>
+        <v>0.2541139969802741</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>3035</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7815</v>
+        <v>7550</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1178422796118134</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03669130550135576</v>
+        <v>0.03659835586739008</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3034760585332457</v>
+        <v>0.2931834162571467</v>
       </c>
     </row>
     <row r="17">
@@ -1659,19 +1659,19 @@
         <v>7442</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4322</v>
+        <v>3755</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9519</v>
+        <v>9521</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7125071571400349</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.413800292843238</v>
+        <v>0.3594681191640378</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9113368224176331</v>
+        <v>0.9115199510847283</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1680,19 +1680,19 @@
         <v>10722</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6859</v>
+        <v>6750</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13568</v>
+        <v>13582</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.70039789688628</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4480606203078753</v>
+        <v>0.4409299728885396</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8863100102306625</v>
+        <v>0.8872257406746792</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -1701,19 +1701,19 @@
         <v>18164</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13221</v>
+        <v>12702</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21973</v>
+        <v>21979</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7053092434706035</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5133953811247924</v>
+        <v>0.4932076165471984</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.853232136069632</v>
+        <v>0.853456961457938</v>
       </c>
     </row>
     <row r="18">
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2775</v>
+        <v>3766</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.222643830461092</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7368518502657641</v>
+        <v>1</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3661</v>
+        <v>3685</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1482021406769566</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6470765873766815</v>
+        <v>0.6513934956663565</v>
       </c>
     </row>
     <row r="20">
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3597</v>
+        <v>3628</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1584735556596454</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6358576122814509</v>
+        <v>0.6412631441993012</v>
       </c>
     </row>
     <row r="21">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4033</v>
+        <v>4060</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1969874858981086</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7129039304848929</v>
+        <v>0.7177345645669577</v>
       </c>
     </row>
     <row r="22">
@@ -2036,19 +2036,19 @@
         <v>2808</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4791</v>
+        <v>4805</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4963368177652894</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1526803184728796</v>
+        <v>0.152624150366102</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8468817112968516</v>
+        <v>0.8494165093912964</v>
       </c>
     </row>
     <row r="23">
@@ -2140,19 +2140,19 @@
         <v>8870</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4503</v>
+        <v>4582</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14113</v>
+        <v>14432</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2662610094263413</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1351803355467813</v>
+        <v>0.1375458788888443</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4236466516371003</v>
+        <v>0.4332447562475061</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -2161,19 +2161,19 @@
         <v>7677</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3560</v>
+        <v>3751</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13647</v>
+        <v>13175</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1632632580015411</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07570953096137165</v>
+        <v>0.07976652072191204</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2902112438100496</v>
+        <v>0.2801823293564801</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>17</v>
@@ -2182,19 +2182,19 @@
         <v>16547</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10284</v>
+        <v>10769</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23738</v>
+        <v>25159</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2059718703999891</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1280061840186482</v>
+        <v>0.1340433602545868</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2954901666770189</v>
+        <v>0.3131694362466747</v>
       </c>
     </row>
     <row r="25">
@@ -2211,19 +2211,19 @@
         <v>3826</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>959</v>
+        <v>995</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8088</v>
+        <v>8599</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1148394599023754</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02879666249462089</v>
+        <v>0.02986460200530949</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2427979413746257</v>
+        <v>0.2581469714718018</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -2232,19 +2232,19 @@
         <v>9520</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4800</v>
+        <v>4873</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15660</v>
+        <v>16071</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2024472009911376</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1020818297825946</v>
+        <v>0.1036284611152189</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3330220124164513</v>
+        <v>0.3417578282012575</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -2253,19 +2253,19 @@
         <v>13345</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7575</v>
+        <v>7686</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20386</v>
+        <v>20967</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1661201452495827</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09429325634012872</v>
+        <v>0.09567012101936968</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2537644916545312</v>
+        <v>0.2609897168724707</v>
       </c>
     </row>
     <row r="26">
@@ -2282,19 +2282,19 @@
         <v>7818</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3976</v>
+        <v>3825</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13436</v>
+        <v>13118</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2346977693506905</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1193664147939</v>
+        <v>0.1148196215680411</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4033333122359573</v>
+        <v>0.3937948721674372</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2303,19 +2303,19 @@
         <v>4518</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1591</v>
+        <v>1760</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9440</v>
+        <v>9603</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09608195653843027</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0338325224635691</v>
+        <v>0.03743798971136362</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2007582076649477</v>
+        <v>0.2042163519210549</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -2324,19 +2324,19 @@
         <v>12336</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6903</v>
+        <v>6814</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>19373</v>
+        <v>19006</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1535598037710173</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08592468160601652</v>
+        <v>0.08481480159970897</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2411521084636621</v>
+        <v>0.2365769628523946</v>
       </c>
     </row>
     <row r="27">
@@ -2353,19 +2353,19 @@
         <v>12799</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7866</v>
+        <v>8040</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>18795</v>
+        <v>18259</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3842017613205927</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2361283563301741</v>
+        <v>0.2413465017351882</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5642112530473179</v>
+        <v>0.5481109888688576</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>26</v>
@@ -2374,19 +2374,19 @@
         <v>25309</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>18519</v>
+        <v>19488</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>31857</v>
+        <v>32018</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5382075844688911</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3938256901781935</v>
+        <v>0.4144288525578253</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6774549364364033</v>
+        <v>0.6808787278891094</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>40</v>
@@ -2395,19 +2395,19 @@
         <v>38107</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>29457</v>
+        <v>29344</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>46494</v>
+        <v>46787</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4743481805794109</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3666757514277987</v>
+        <v>0.3652602570008371</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5787499705596216</v>
+        <v>0.5823897317395857</v>
       </c>
     </row>
     <row r="28">
@@ -2739,19 +2739,19 @@
         <v>4528</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9337</v>
+        <v>9456</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2017413616309749</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04873990497094802</v>
+        <v>0.0480533183267884</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4159616092469965</v>
+        <v>0.4212377644837252</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2760,19 +2760,19 @@
         <v>6383</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2900</v>
+        <v>2975</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11885</v>
+        <v>11751</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2130518198936811</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09679293384126757</v>
+        <v>0.0992894770942058</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3966743180260313</v>
+        <v>0.3921904085884764</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -2781,19 +2781,19 @@
         <v>10912</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5398</v>
+        <v>5849</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17587</v>
+        <v>17977</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2082075594164585</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1030070968690269</v>
+        <v>0.1116024294598206</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3355629253427151</v>
+        <v>0.343020882492278</v>
       </c>
     </row>
     <row r="5">
@@ -2810,19 +2810,19 @@
         <v>3026</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8659</v>
+        <v>7667</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1347983038162568</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03239811616956011</v>
+        <v>0.03308820438442049</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3857406226883823</v>
+        <v>0.3415466901509175</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -2831,19 +2831,19 @@
         <v>4473</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9835</v>
+        <v>9985</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1492727452118291</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03779901722124646</v>
+        <v>0.03776693257762622</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3282431341265151</v>
+        <v>0.3332508282797709</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -2852,19 +2852,19 @@
         <v>7498</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3370</v>
+        <v>3237</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13996</v>
+        <v>13844</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1430733532195838</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06429570323088273</v>
+        <v>0.06176837624563363</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2670519001562155</v>
+        <v>0.2641587722382617</v>
       </c>
     </row>
     <row r="6">
@@ -2881,19 +2881,19 @@
         <v>5745</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2623</v>
+        <v>2717</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10699</v>
+        <v>10766</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2559207430134612</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1168551976474376</v>
+        <v>0.1210601547405522</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4766305582358454</v>
+        <v>0.4796279454938791</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -2902,19 +2902,19 @@
         <v>10510</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5937</v>
+        <v>5402</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15907</v>
+        <v>16717</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3507634727179906</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1981565251304286</v>
+        <v>0.1802990509531187</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5309086085094378</v>
+        <v>0.5579430812870769</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -2923,19 +2923,19 @@
         <v>16254</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10206</v>
+        <v>9876</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23031</v>
+        <v>23340</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3101424053493527</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1947463756797367</v>
+        <v>0.1884404373202609</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4394534410980752</v>
+        <v>0.4453489720580095</v>
       </c>
     </row>
     <row r="7">
@@ -2952,19 +2952,19 @@
         <v>9148</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4182</v>
+        <v>4202</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14163</v>
+        <v>13616</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4075395915393071</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1862894231027586</v>
+        <v>0.1871779175937264</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6309533612710891</v>
+        <v>0.6066008541343849</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -2973,19 +2973,19 @@
         <v>8596</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4239</v>
+        <v>4194</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14189</v>
+        <v>14284</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2869119621764993</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1414817795878476</v>
+        <v>0.1399744155730677</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4735514945348036</v>
+        <v>0.4767529999651158</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -2994,19 +2994,19 @@
         <v>17744</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11264</v>
+        <v>10844</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25388</v>
+        <v>25387</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3385766820146051</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2149241010134632</v>
+        <v>0.2069065642609353</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4844214478455343</v>
+        <v>0.4844107945628001</v>
       </c>
     </row>
     <row r="8">
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5797</v>
+        <v>6149</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1479855103184281</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4368517108582475</v>
+        <v>0.4633447616390771</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -3119,19 +3119,19 @@
         <v>9383</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4195</v>
+        <v>4787</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15086</v>
+        <v>15399</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3627560096694452</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.162184583015946</v>
+        <v>0.1850865709971475</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5832217535823594</v>
+        <v>0.5953524589519177</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -3140,19 +3140,19 @@
         <v>11347</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5755</v>
+        <v>5309</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>18412</v>
+        <v>18305</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2899330954400284</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1470467019217369</v>
+        <v>0.1356563601787089</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.470466010498422</v>
+        <v>0.4677436443543472</v>
       </c>
     </row>
     <row r="10">
@@ -3169,19 +3169,19 @@
         <v>4090</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9790</v>
+        <v>9733</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3081798636331011</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06568651376185039</v>
+        <v>0.06586051238008792</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7377219892400894</v>
+        <v>0.7334390705876024</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -3190,19 +3190,19 @@
         <v>3861</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>996</v>
+        <v>1012</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9905</v>
+        <v>9681</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1492828321957223</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03850767961555947</v>
+        <v>0.03914317927291376</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3829201942569217</v>
+        <v>0.3742698730149889</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -3211,19 +3211,19 @@
         <v>7951</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3134</v>
+        <v>2912</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15544</v>
+        <v>15435</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2031605524908228</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08007638590659567</v>
+        <v>0.07441502541539202</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3971858235977868</v>
+        <v>0.3943973000882216</v>
       </c>
     </row>
     <row r="11">
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8840</v>
+        <v>8133</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2382693233489994</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6661759026739413</v>
+        <v>0.6129148180308299</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -3261,19 +3261,19 @@
         <v>2991</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>890</v>
+        <v>936</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7902</v>
+        <v>7595</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1156241781510695</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03442596622407082</v>
+        <v>0.03618734573378938</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3055127586959291</v>
+        <v>0.2936366292065613</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -3282,19 +3282,19 @@
         <v>6152</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2037</v>
+        <v>2163</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13310</v>
+        <v>13145</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.157209856428075</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0520561787306345</v>
+        <v>0.05527057667828241</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3401106414892935</v>
+        <v>0.3359008552578949</v>
       </c>
     </row>
     <row r="12">
@@ -3311,19 +3311,19 @@
         <v>4055</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>977</v>
+        <v>894</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9324</v>
+        <v>9334</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3055653026994715</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07365375654737596</v>
+        <v>0.06740038977699227</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7026097010767509</v>
+        <v>0.7034079831669048</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -3332,19 +3332,19 @@
         <v>9631</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4826</v>
+        <v>4979</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15761</v>
+        <v>15863</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.372336979983763</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1865922335672264</v>
+        <v>0.192504491408736</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6093361760022373</v>
+        <v>0.6132899679813681</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -3353,19 +3353,19 @@
         <v>13685</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8090</v>
+        <v>7998</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21737</v>
+        <v>22054</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3496964956410737</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2067287089751497</v>
+        <v>0.2043802102376984</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.555429877830069</v>
+        <v>0.5635460744245029</v>
       </c>
     </row>
     <row r="13">
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5239</v>
+        <v>5245</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07811685972219114</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3895411968805089</v>
+        <v>0.3899628229685409</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -3478,19 +3478,19 @@
         <v>4194</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1049</v>
+        <v>1063</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8509</v>
+        <v>8448</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2444103458528292</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06114474597559184</v>
+        <v>0.06192147371283854</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4958540889892017</v>
+        <v>0.492269533991928</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -3499,19 +3499,19 @@
         <v>5245</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2059</v>
+        <v>2066</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10484</v>
+        <v>11429</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1713453204684106</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06726540437338854</v>
+        <v>0.06750944173232921</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3425002524914892</v>
+        <v>0.373390807085638</v>
       </c>
     </row>
     <row r="15">
@@ -3528,19 +3528,19 @@
         <v>4016</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8256</v>
+        <v>8090</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2986141914815556</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07506539530922904</v>
+        <v>0.0738028093830683</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6138680985943389</v>
+        <v>0.6015298024234698</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -3549,19 +3549,19 @@
         <v>4295</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8446</v>
+        <v>8801</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.250271955709559</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05786037393816795</v>
+        <v>0.0572468648035824</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4921585444497851</v>
+        <v>0.5128432858932828</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>8</v>
@@ -3570,19 +3570,19 @@
         <v>8311</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>4003</v>
+        <v>3977</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>13795</v>
+        <v>14034</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2715122746541368</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1307753291239666</v>
+        <v>0.1299264788766994</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.450663701564661</v>
+        <v>0.4584647307321986</v>
       </c>
     </row>
     <row r="16">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5932</v>
+        <v>5868</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1418086249843992</v>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4410696702496663</v>
+        <v>0.4363043282347953</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -3620,19 +3620,19 @@
         <v>3144</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7256</v>
+        <v>7552</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1831904329749722</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05904446991428364</v>
+        <v>0.05942293298846559</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4228237515774678</v>
+        <v>0.4400588137665345</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -3641,19 +3641,19 @@
         <v>5051</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1948</v>
+        <v>1993</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10261</v>
+        <v>10174</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1650083446584817</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06364571672309746</v>
+        <v>0.06509503465931116</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3352041173577884</v>
+        <v>0.3323760977416105</v>
       </c>
     </row>
     <row r="17">
@@ -3670,19 +3670,19 @@
         <v>6475</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2247</v>
+        <v>3209</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9621</v>
+        <v>10516</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4814603238118541</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1670602934946442</v>
+        <v>0.2386269624486316</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7153527854345063</v>
+        <v>0.7818879588435792</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -3691,19 +3691,19 @@
         <v>5528</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2120</v>
+        <v>2223</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10685</v>
+        <v>9933</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3221272654626396</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1235184481928254</v>
+        <v>0.1295125317728342</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.622650283373093</v>
+        <v>0.5788341216795714</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -3712,19 +3712,19 @@
         <v>12003</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6803</v>
+        <v>6732</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18037</v>
+        <v>17383</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3921340602189708</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2222364824015465</v>
+        <v>0.2199329340260215</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5892504871128402</v>
+        <v>0.5678996510194073</v>
       </c>
     </row>
     <row r="18">
@@ -3816,19 +3816,19 @@
         <v>3914</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>956</v>
+        <v>922</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7516</v>
+        <v>7507</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3686453892720466</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09000905903733573</v>
+        <v>0.08684540425809277</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7080011804605895</v>
+        <v>0.7071483126604834</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5097</v>
+        <v>5079</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2448639407764496</v>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6236979096692865</v>
+        <v>0.621409798222875</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -3858,19 +3858,19 @@
         <v>5915</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2087</v>
+        <v>2533</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10173</v>
+        <v>10008</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3148000724503361</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1110509652552363</v>
+        <v>0.1348160714097162</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5414566321662819</v>
+        <v>0.5326328466737468</v>
       </c>
     </row>
     <row r="20">
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4073</v>
+        <v>3989</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08537831307933987</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3836863839960245</v>
+        <v>0.3757501149829807</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4210</v>
+        <v>5151</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.130556174006666</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5151079913736544</v>
+        <v>0.630225667233768</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5979</v>
+        <v>6101</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1050308237303651</v>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3182068256613669</v>
+        <v>0.3247001762104931</v>
       </c>
     </row>
     <row r="21">
@@ -3958,19 +3958,19 @@
         <v>3718</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7532</v>
+        <v>7492</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3501951056308941</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09161176162112568</v>
+        <v>0.09062673603911064</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7095367712221099</v>
+        <v>0.7057029306758336</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -3992,19 +3992,19 @@
         <v>3718</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>8913</v>
+        <v>9001</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1978591405789211</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04991387635254432</v>
+        <v>0.04983976852100655</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4743596191196637</v>
+        <v>0.4790488291841335</v>
       </c>
     </row>
     <row r="22">
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5811</v>
+        <v>5629</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1957811920177194</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5473896672140025</v>
+        <v>0.530272946850003</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -4042,19 +4042,19 @@
         <v>5105</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2007</v>
+        <v>2033</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7185</v>
+        <v>7181</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6245798852168845</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2456195200842259</v>
+        <v>0.2487375320654443</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8791698094543138</v>
+        <v>0.8786242490150928</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -4063,19 +4063,19 @@
         <v>7183</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3144</v>
+        <v>3167</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11667</v>
+        <v>11596</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3823099632403777</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1673111703465631</v>
+        <v>0.1685505308695713</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6209241694983415</v>
+        <v>0.6171450525217194</v>
       </c>
     </row>
     <row r="23">
@@ -4167,19 +4167,19 @@
         <v>11456</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6199</v>
+        <v>6124</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17579</v>
+        <v>18317</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1916361606190051</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1037011079521781</v>
+        <v>0.1024376226002854</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2940577750469088</v>
+        <v>0.306398945988577</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>20</v>
@@ -4188,19 +4188,19 @@
         <v>21962</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14612</v>
+        <v>14906</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>30848</v>
+        <v>31481</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2705951630438409</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1800371759569567</v>
+        <v>0.1836559479770491</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3800768944500938</v>
+        <v>0.3878761890559846</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>31</v>
@@ -4209,19 +4209,19 @@
         <v>33418</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>24213</v>
+        <v>24374</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>44976</v>
+        <v>46045</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2371044853565009</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1717911101721128</v>
+        <v>0.1729325614287226</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3191112570429627</v>
+        <v>0.326690696293803</v>
       </c>
     </row>
     <row r="25">
@@ -4238,19 +4238,19 @@
         <v>12038</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6142</v>
+        <v>6643</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20992</v>
+        <v>20326</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2013614805036091</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1027388711361396</v>
+        <v>0.1111163000117257</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3511463788282029</v>
+        <v>0.3400026821494214</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -4259,19 +4259,19 @@
         <v>13696</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7407</v>
+        <v>7752</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21578</v>
+        <v>23601</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1687459166457902</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09126334073806378</v>
+        <v>0.09551827591261187</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2658615296898084</v>
+        <v>0.2907900810602665</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>23</v>
@@ -4280,19 +4280,19 @@
         <v>25733</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15757</v>
+        <v>17421</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>35452</v>
+        <v>36812</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1825798976132282</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1117986805110251</v>
+        <v>0.1236036437059721</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2515336523254374</v>
+        <v>0.2611863402213895</v>
       </c>
     </row>
     <row r="26">
@@ -4309,19 +4309,19 @@
         <v>14531</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8632</v>
+        <v>8263</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23382</v>
+        <v>22828</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2430720952674582</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1443955488283878</v>
+        <v>0.1382132963373464</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3911287456569332</v>
+        <v>0.3818475070601625</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -4330,19 +4330,19 @@
         <v>16644</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10061</v>
+        <v>10317</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25113</v>
+        <v>24967</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2050718790851661</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1239666462973481</v>
+        <v>0.1271215994720374</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3094135783742408</v>
+        <v>0.3076231626781035</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>29</v>
@@ -4351,19 +4351,19 @@
         <v>31175</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>22050</v>
+        <v>21552</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>42500</v>
+        <v>41394</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2211897751214271</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1564454232484497</v>
+        <v>0.1529097803214305</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3015390627752443</v>
+        <v>0.293693631342288</v>
       </c>
     </row>
     <row r="27">
@@ -4380,19 +4380,19 @@
         <v>21756</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14499</v>
+        <v>14675</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>30125</v>
+        <v>29132</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3639302636099276</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2425261498991175</v>
+        <v>0.2454722081250846</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5039156645964727</v>
+        <v>0.4873113167141803</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>26</v>
@@ -4401,19 +4401,19 @@
         <v>28860</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>20504</v>
+        <v>20494</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>38034</v>
+        <v>38066</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3555870412252027</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2526362011552905</v>
+        <v>0.2525013051844198</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4686184580266811</v>
+        <v>0.4690087097683295</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>46</v>
@@ -4422,19 +4422,19 @@
         <v>50616</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>38675</v>
+        <v>40024</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>61951</v>
+        <v>63457</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3591258419088438</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2743995213441205</v>
+        <v>0.2839718456373725</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4395441361941764</v>
+        <v>0.4502306160816868</v>
       </c>
     </row>
     <row r="28">
@@ -4766,19 +4766,19 @@
         <v>5079</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1947</v>
+        <v>1199</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10253</v>
+        <v>10072</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2829672642098218</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1084946049410512</v>
+        <v>0.06679509876143139</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5712468254849973</v>
+        <v>0.5611842794328652</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -4787,19 +4787,19 @@
         <v>7992</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4044</v>
+        <v>3770</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12935</v>
+        <v>12705</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4270942584167977</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2161046937210539</v>
+        <v>0.2014680783127956</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6912233174142431</v>
+        <v>0.6789416428446593</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -4808,19 +4808,19 @@
         <v>13071</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7776</v>
+        <v>7189</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20017</v>
+        <v>18857</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.35653421848936</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2121011537818001</v>
+        <v>0.1960893779854232</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5460019842424568</v>
+        <v>0.5143509849047853</v>
       </c>
     </row>
     <row r="5">
@@ -4837,19 +4837,19 @@
         <v>3426</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8274</v>
+        <v>7382</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1908749834015286</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05451734895148661</v>
+        <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4610086808759522</v>
+        <v>0.4113071119241506</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -4858,19 +4858,19 @@
         <v>4839</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1592</v>
+        <v>1653</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10061</v>
+        <v>10331</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.258576441699399</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08506748582710655</v>
+        <v>0.08834917396681512</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5376559797531345</v>
+        <v>0.5520585207495359</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -4879,19 +4879,19 @@
         <v>8265</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3815</v>
+        <v>3641</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14062</v>
+        <v>14601</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2254319386385541</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1040735163509701</v>
+        <v>0.09932001731099174</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3835550439527969</v>
+        <v>0.3982624031224881</v>
       </c>
     </row>
     <row r="6">
@@ -4908,19 +4908,19 @@
         <v>5995</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2485</v>
+        <v>2597</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10193</v>
+        <v>10989</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3340336974609243</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1384281762116752</v>
+        <v>0.1446727535941966</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5679103131965911</v>
+        <v>0.6122801027109315</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5251</v>
+        <v>4259</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05176502370371863</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2806119509727575</v>
+        <v>0.2275944387408719</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -4950,19 +4950,19 @@
         <v>6964</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3024</v>
+        <v>3065</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13258</v>
+        <v>11927</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1899548818920559</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.082485382100497</v>
+        <v>0.08361182658351515</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3616414199805103</v>
+        <v>0.3253299991398158</v>
       </c>
     </row>
     <row r="7">
@@ -4979,19 +4979,19 @@
         <v>3448</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>959</v>
+        <v>1005</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8584</v>
+        <v>7898</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1921240549277253</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05344819653674183</v>
+        <v>0.05599761554792033</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.478242861325947</v>
+        <v>0.4400342284672968</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -5000,19 +5000,19 @@
         <v>4913</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1221</v>
+        <v>1158</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10185</v>
+        <v>9513</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2625642761800847</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06525232054934595</v>
+        <v>0.06190541610937824</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5442611590053964</v>
+        <v>0.5083676809109968</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -5021,19 +5021,19 @@
         <v>8362</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3401</v>
+        <v>3765</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15306</v>
+        <v>14669</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.22807896098003</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09277734622641154</v>
+        <v>0.1026887358902888</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4174880526489688</v>
+        <v>0.400111921006498</v>
       </c>
     </row>
     <row r="8">
@@ -5125,19 +5125,19 @@
         <v>3873</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1033</v>
+        <v>1009</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7809</v>
+        <v>7690</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2824069973101652</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0753199723242247</v>
+        <v>0.07357582959236397</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5693413716108775</v>
+        <v>0.5606775015599197</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -5146,19 +5146,19 @@
         <v>3951</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8501</v>
+        <v>8408</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1982477398789008</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04948096000372722</v>
+        <v>0.04904069286023052</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4265871910792991</v>
+        <v>0.4218763001387987</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -5167,19 +5167,19 @@
         <v>7824</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3757</v>
+        <v>3795</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13810</v>
+        <v>14135</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2325564307463904</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1116677215672914</v>
+        <v>0.1127984740273076</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4104478173748071</v>
+        <v>0.4201150749987232</v>
       </c>
     </row>
     <row r="10">
@@ -5196,19 +5196,19 @@
         <v>2823</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6550</v>
+        <v>6626</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2057875569062643</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0559731903025828</v>
+        <v>0.05620604004812827</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4775123645445986</v>
+        <v>0.4830683065417055</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -5217,19 +5217,19 @@
         <v>3208</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>960</v>
+        <v>984</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7731</v>
+        <v>7448</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1609780497390675</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04817224365812651</v>
+        <v>0.04937578686319156</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3879248778223112</v>
+        <v>0.3737488837824881</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -5238,19 +5238,19 @@
         <v>6031</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2098</v>
+        <v>2489</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11381</v>
+        <v>11241</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1792452680611817</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06234547422287601</v>
+        <v>0.07397191737723739</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3382701637673618</v>
+        <v>0.3341054021509392</v>
       </c>
     </row>
     <row r="11">
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5859</v>
+        <v>5837</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1443917940401671</v>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.427149496785624</v>
+        <v>0.4255957133177879</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -5288,19 +5288,19 @@
         <v>6023</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2174</v>
+        <v>2483</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11105</v>
+        <v>11378</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3022333429270381</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.109070509879363</v>
+        <v>0.1245925877385403</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5572193523895693</v>
+        <v>0.5709344439850588</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -5309,19 +5309,19 @@
         <v>8004</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3489</v>
+        <v>3556</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13892</v>
+        <v>14004</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2378870419722288</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1036890570866058</v>
+        <v>0.1057035225040106</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4129000551919839</v>
+        <v>0.416217077591729</v>
       </c>
     </row>
     <row r="12">
@@ -5338,19 +5338,19 @@
         <v>5039</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1957</v>
+        <v>2011</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8913</v>
+        <v>9100</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3674136517434033</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1426499687936282</v>
+        <v>0.1466185622943245</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6498592154569367</v>
+        <v>0.6634918948830121</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -5359,19 +5359,19 @@
         <v>6747</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2388</v>
+        <v>3103</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12230</v>
+        <v>11693</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3385408674549936</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1198479048900993</v>
+        <v>0.1557062663285215</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6136648606076638</v>
+        <v>0.5867226356997194</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -5380,19 +5380,19 @@
         <v>11786</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6442</v>
+        <v>6707</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17895</v>
+        <v>18167</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3503112592201991</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.191461590803616</v>
+        <v>0.199356118839997</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5318819473593903</v>
+        <v>0.53995597723469</v>
       </c>
     </row>
     <row r="13">
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6738</v>
+        <v>5911</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1316854347124553</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4050776725159824</v>
+        <v>0.3553965169070215</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -5505,19 +5505,19 @@
         <v>3135</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7225</v>
+        <v>6794</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2662741988456046</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07479554479393315</v>
+        <v>0.07470322797090855</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6137203485133617</v>
+        <v>0.5770884809314452</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -5526,19 +5526,19 @@
         <v>5325</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1829</v>
+        <v>2017</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10099</v>
+        <v>10757</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1874657143331441</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06437136340343451</v>
+        <v>0.0709979473546304</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.355509675353844</v>
+        <v>0.3787023977454897</v>
       </c>
     </row>
     <row r="15">
@@ -5555,19 +5555,19 @@
         <v>4714</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1187</v>
+        <v>1109</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9065</v>
+        <v>9006</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2834146937739558</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07137713165577723</v>
+        <v>0.0666552199471865</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5450134183751223</v>
+        <v>0.5414754443575136</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -5576,19 +5576,19 @@
         <v>4570</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1258</v>
+        <v>1274</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8051</v>
+        <v>8258</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3882021329900614</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1068793462002861</v>
+        <v>0.1082025430896126</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.6838893906835543</v>
+        <v>0.7013995853137958</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>8</v>
@@ -5597,19 +5597,19 @@
         <v>9284</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>4665</v>
+        <v>4384</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>15683</v>
+        <v>15280</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3268438217391085</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1642147333341869</v>
+        <v>0.154336509884681</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.5521001136815391</v>
+        <v>0.5379243259791698</v>
       </c>
     </row>
     <row r="16">
@@ -5626,19 +5626,19 @@
         <v>6822</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2984</v>
+        <v>3162</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10955</v>
+        <v>11704</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4101453406202087</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1794071677813474</v>
+        <v>0.1901218865236724</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6586603936193096</v>
+        <v>0.703653444165283</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3684</v>
+        <v>4207</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06930527088527927</v>
@@ -5659,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3128952259422696</v>
+        <v>0.3573670420041973</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -5668,19 +5668,19 @@
         <v>7638</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3192</v>
+        <v>3353</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13279</v>
+        <v>13445</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.268884258997224</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1123812400309452</v>
+        <v>0.1180210044224879</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.467460125792892</v>
+        <v>0.4733138824434082</v>
       </c>
     </row>
     <row r="17">
@@ -5697,19 +5697,19 @@
         <v>2907</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>803</v>
+        <v>760</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6910</v>
+        <v>7089</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1747545308933802</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04826193346573391</v>
+        <v>0.04568453225241806</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4154156247104175</v>
+        <v>0.4262064560210344</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -5718,19 +5718,19 @@
         <v>3252</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7362</v>
+        <v>6931</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2762183972790547</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08351886088183319</v>
+        <v>0.08396798525022174</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6253464364417703</v>
+        <v>0.5887416344519053</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -5739,19 +5739,19 @@
         <v>6159</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2194</v>
+        <v>2119</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11090</v>
+        <v>11065</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2168062049305234</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07723700037292175</v>
+        <v>0.07458983026729518</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3904184143190638</v>
+        <v>0.3895468656818399</v>
       </c>
     </row>
     <row r="18">
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4675</v>
+        <v>4606</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09565682748567468</v>
@@ -5868,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4754657807963261</v>
+        <v>0.4684117869120414</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4323</v>
+        <v>4460</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07985784878871346</v>
@@ -5889,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3670375613772357</v>
+        <v>0.378671120843069</v>
       </c>
     </row>
     <row r="20">
@@ -5927,19 +5927,19 @@
         <v>3556</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>911</v>
+        <v>926</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7447</v>
+        <v>7463</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3616002703599506</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09266671477240568</v>
+        <v>0.0941422118382204</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7573602632504338</v>
+        <v>0.7589552212760011</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -5948,19 +5948,19 @@
         <v>4529</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1243</v>
+        <v>1125</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8770</v>
+        <v>8747</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3844587995180057</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1054896130566489</v>
+        <v>0.09554655300141814</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7445263863422517</v>
+        <v>0.7425966190698556</v>
       </c>
     </row>
     <row r="21">
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>5438</v>
+        <v>5047</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08258155278737023</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.461677937041419</v>
+        <v>0.4284505070568256</v>
       </c>
     </row>
     <row r="22">
@@ -6053,19 +6053,19 @@
         <v>5337</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1385</v>
+        <v>2145</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8823</v>
+        <v>8620</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5427429021543747</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1408528938378958</v>
+        <v>0.2181378798047044</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8972749095711243</v>
+        <v>0.8766801859920194</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -6074,19 +6074,19 @@
         <v>5337</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1175</v>
+        <v>2052</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9032</v>
+        <v>9325</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4531017989059107</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09977211426129913</v>
+        <v>0.1741897644131307</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7667466799008543</v>
+        <v>0.7917001762379976</v>
       </c>
     </row>
     <row r="23">
@@ -6178,19 +6178,19 @@
         <v>11143</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6194</v>
+        <v>5397</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18603</v>
+        <v>18663</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2217746774029609</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1232744568318166</v>
+        <v>0.107412816625795</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3702656062692468</v>
+        <v>0.371453300657179</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>16</v>
@@ -6199,19 +6199,19 @@
         <v>16019</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9921</v>
+        <v>9647</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23974</v>
+        <v>23345</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2658760691545864</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1646700272429263</v>
+        <v>0.1601220683622272</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3979300091435926</v>
+        <v>0.3874785861161484</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>26</v>
@@ -6220,19 +6220,19 @@
         <v>27161</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>18165</v>
+        <v>19091</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>36881</v>
+        <v>37992</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2458221915853508</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1643985847288514</v>
+        <v>0.1727826819295547</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3337949906921112</v>
+        <v>0.3438501050147566</v>
       </c>
     </row>
     <row r="25">
@@ -6249,19 +6249,19 @@
         <v>11935</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6286</v>
+        <v>6547</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19050</v>
+        <v>20256</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2375513304906671</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1251143688356995</v>
+        <v>0.1303099400258812</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3791534353656028</v>
+        <v>0.4031543294215536</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -6270,19 +6270,19 @@
         <v>16173</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9840</v>
+        <v>9176</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23857</v>
+        <v>24439</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2684369287759531</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1633327660682641</v>
+        <v>0.1523084286620429</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3959838822041974</v>
+        <v>0.4056449623830334</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>25</v>
@@ -6291,19 +6291,19 @@
         <v>28108</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19498</v>
+        <v>18313</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38997</v>
+        <v>37860</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.254392564594569</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1764656580639195</v>
+        <v>0.1657448002511128</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3529428316429618</v>
+        <v>0.3426534285306871</v>
       </c>
     </row>
     <row r="26">
@@ -6320,19 +6320,19 @@
         <v>15771</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9602</v>
+        <v>9816</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23312</v>
+        <v>22926</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3138866193308472</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1911085645486789</v>
+        <v>0.1953666063902089</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4639857245121203</v>
+        <v>0.4563001733347438</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -6341,19 +6341,19 @@
         <v>7808</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3685</v>
+        <v>3349</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14784</v>
+        <v>14330</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1295947119649372</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06117203124708093</v>
+        <v>0.0555911974146631</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2453861725676109</v>
+        <v>0.2378581348709499</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>22</v>
@@ -6362,19 +6362,19 @@
         <v>23578</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15050</v>
+        <v>15022</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>33216</v>
+        <v>33192</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2133963155091301</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1362095703124521</v>
+        <v>0.1359612902856001</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3006182177650132</v>
+        <v>0.3004004874006787</v>
       </c>
     </row>
     <row r="27">
@@ -6391,19 +6391,19 @@
         <v>11394</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6010</v>
+        <v>6558</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>18322</v>
+        <v>18604</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2267873727755249</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.119614074666952</v>
+        <v>0.1305299137384308</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3646753371284045</v>
+        <v>0.3702871611099987</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>17</v>
@@ -6412,19 +6412,19 @@
         <v>20249</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>12876</v>
+        <v>13473</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>29529</v>
+        <v>29510</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3360922901045232</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2137159796555611</v>
+        <v>0.2236271009900762</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4901169203267113</v>
+        <v>0.4898009245130661</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>28</v>
@@ -6433,19 +6433,19 @@
         <v>31643</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>21890</v>
+        <v>22768</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>42498</v>
+        <v>43287</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2863889283109501</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1981126810427786</v>
+        <v>0.2060595910751704</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3846266504834205</v>
+        <v>0.391768782920053</v>
       </c>
     </row>
     <row r="28">
@@ -6777,19 +6777,19 @@
         <v>6254</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2648</v>
+        <v>2621</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10440</v>
+        <v>10045</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4437325570130821</v>
+        <v>0.4437325570130819</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1879199347009187</v>
+        <v>0.1859719598025504</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7407916846488217</v>
+        <v>0.7127576355186871</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -6798,19 +6798,19 @@
         <v>3722</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1474</v>
+        <v>1440</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5903</v>
+        <v>6029</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4529052562020101</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1794026115332631</v>
+        <v>0.1752752302314067</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.718423419147371</v>
+        <v>0.7336625670630129</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -6819,19 +6819,19 @@
         <v>9975</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5681</v>
+        <v>5696</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14498</v>
+        <v>14487</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4471110098309286</v>
+        <v>0.4471110098309287</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2546358797227928</v>
+        <v>0.255311371509612</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6498533338345857</v>
+        <v>0.6493457606286681</v>
       </c>
     </row>
     <row r="5">
@@ -6851,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5181</v>
+        <v>5670</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1111621532781963</v>
@@ -6860,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3676550451741384</v>
+        <v>0.4023117454725467</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -6869,19 +6869,19 @@
         <v>2071</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4549</v>
+        <v>4332</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2520649807699015</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07798411067291602</v>
+        <v>0.07520110128729503</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5536085032839005</v>
+        <v>0.5271695384222886</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -6890,19 +6890,19 @@
         <v>3638</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1181</v>
+        <v>1226</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7564</v>
+        <v>7811</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1630589335799544</v>
+        <v>0.1630589335799545</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05291735320886326</v>
+        <v>0.054941952985821</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3390504356236303</v>
+        <v>0.3501285966527856</v>
       </c>
     </row>
     <row r="6">
@@ -6922,16 +6922,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5966</v>
+        <v>5591</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1426662205026376</v>
+        <v>0.1426662205026375</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4233420303471268</v>
+        <v>0.3967043626560119</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3268</v>
+        <v>3147</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07372738919856782</v>
@@ -6952,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3977459637960601</v>
+        <v>0.3829734956959827</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -6961,19 +6961,19 @@
         <v>2616</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>602</v>
+        <v>571</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7030</v>
+        <v>7023</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1172749388219495</v>
+        <v>0.1172749388219496</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0269701219101844</v>
+        <v>0.02561502827112681</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3151252046347907</v>
+        <v>0.3147914327542463</v>
       </c>
     </row>
     <row r="7">
@@ -6990,19 +6990,19 @@
         <v>4262</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1458</v>
+        <v>1345</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8620</v>
+        <v>8358</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3024390692060842</v>
+        <v>0.302439069206084</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1034291915713165</v>
+        <v>0.09540889459607307</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6116386860738295</v>
+        <v>0.5930672773849527</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -7011,19 +7011,19 @@
         <v>1818</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4355</v>
+        <v>4436</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2213023738295207</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06509520112703145</v>
+        <v>0.06538539846005485</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5299733175638008</v>
+        <v>0.5398495473013133</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -7032,19 +7032,19 @@
         <v>6081</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3083</v>
+        <v>2906</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11348</v>
+        <v>10793</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2725551177671673</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1381809354375291</v>
+        <v>0.1302581335288352</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5086630526224006</v>
+        <v>0.4837725009365876</v>
       </c>
     </row>
     <row r="8">
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3937</v>
+        <v>4333</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0840968104976515</v>
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2622117119875688</v>
+        <v>0.2885392036530002</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -7157,19 +7157,19 @@
         <v>2336</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5073</v>
+        <v>5150</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1506178606319161</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04387317121881756</v>
+        <v>0.04248310261225949</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3271626569693588</v>
+        <v>0.3321321388315487</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -7178,19 +7178,19 @@
         <v>3598</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1199</v>
+        <v>1332</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7470</v>
+        <v>7203</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1178926322376645</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03928497357750944</v>
+        <v>0.04362560087232072</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2447476900035604</v>
+        <v>0.2359954872217334</v>
       </c>
     </row>
     <row r="10">
@@ -7207,19 +7207,19 @@
         <v>2892</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>853</v>
+        <v>808</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6934</v>
+        <v>6725</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1925985993394813</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05681786288920545</v>
+        <v>0.0538063572957562</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4617911362501303</v>
+        <v>0.4478749837929621</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -7228,19 +7228,19 @@
         <v>6988</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4156</v>
+        <v>4329</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10041</v>
+        <v>10069</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4506461208525226</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2680076733456132</v>
+        <v>0.2791392427947917</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6475267038485546</v>
+        <v>0.6493182985812496</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -7249,19 +7249,19 @@
         <v>9880</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5758</v>
+        <v>5920</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14109</v>
+        <v>14478</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3236988754160735</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1886336558565925</v>
+        <v>0.193943503154062</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4622490564329692</v>
+        <v>0.4743367888387413</v>
       </c>
     </row>
     <row r="11">
@@ -7278,19 +7278,19 @@
         <v>3462</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>917</v>
+        <v>990</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7730</v>
+        <v>7417</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2305661718242213</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06108656838782772</v>
+        <v>0.06590726988125019</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5147812553167543</v>
+        <v>0.4939208254268678</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -7299,19 +7299,19 @@
         <v>2408</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>590</v>
+        <v>649</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4990</v>
+        <v>5551</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.155304279435388</v>
+        <v>0.1553042794353879</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03807595780029406</v>
+        <v>0.04183783713990687</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3217684215474665</v>
+        <v>0.3579496090672686</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -7320,19 +7320,19 @@
         <v>5870</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2587</v>
+        <v>2791</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10447</v>
+        <v>10616</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1923295911650881</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08476665432744812</v>
+        <v>0.09145144847529323</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3422709349094392</v>
+        <v>0.347789172697044</v>
       </c>
     </row>
     <row r="12">
@@ -7349,19 +7349,19 @@
         <v>7399</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3754</v>
+        <v>3501</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11188</v>
+        <v>10860</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4927384183386459</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2499862350779044</v>
+        <v>0.2331600281322189</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7450430988816928</v>
+        <v>0.7232466922675916</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -7370,19 +7370,19 @@
         <v>3775</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1512</v>
+        <v>1640</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6712</v>
+        <v>6734</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2434317390801733</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09751782148347252</v>
+        <v>0.1057307079085706</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.432849747775557</v>
+        <v>0.4342455654900693</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -7391,19 +7391,19 @@
         <v>11174</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6662</v>
+        <v>6469</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15851</v>
+        <v>16290</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.366078901181174</v>
+        <v>0.3660789011811741</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2182608275368061</v>
+        <v>0.2119406785222466</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5193016404452878</v>
+        <v>0.5336944563710839</v>
       </c>
     </row>
     <row r="13">
@@ -7495,19 +7495,19 @@
         <v>5005</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1843</v>
+        <v>1470</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9517</v>
+        <v>9522</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3213528485231188</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1183152765408487</v>
+        <v>0.09434731007877828</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6110278897085364</v>
+        <v>0.6113064617474773</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3904</v>
+        <v>4362</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07514397109316327</v>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2583718169792825</v>
+        <v>0.288658636686472</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -7537,19 +7537,19 @@
         <v>6141</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2552</v>
+        <v>2649</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11467</v>
+        <v>12030</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2001129852477758</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08316860239819425</v>
+        <v>0.0863279570437895</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.373688976742344</v>
+        <v>0.3920205716220706</v>
       </c>
     </row>
     <row r="15">
@@ -7566,19 +7566,19 @@
         <v>2063</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4639</v>
+        <v>5046</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1324268202924643</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02923422922032786</v>
+        <v>0.03082602076201547</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2978250860243862</v>
+        <v>0.3239291268222872</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -7590,16 +7590,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3968</v>
+        <v>4125</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.08481865261773235</v>
+        <v>0.08481865261773236</v>
       </c>
       <c r="O15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2625878304100726</v>
+        <v>0.2729666663626157</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -7608,19 +7608,19 @@
         <v>3344</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1146</v>
+        <v>1125</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6884</v>
+        <v>6738</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.1089832799947909</v>
+        <v>0.1089832799947908</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03734131720375816</v>
+        <v>0.03664431539941235</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2243351459906016</v>
+        <v>0.2195801219931653</v>
       </c>
     </row>
     <row r="16">
@@ -7637,19 +7637,19 @@
         <v>2526</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>586</v>
+        <v>504</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6746</v>
+        <v>6202</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1621436024316157</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03763080525358815</v>
+        <v>0.03238098431708254</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4331257870794339</v>
+        <v>0.3981836609193422</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -7658,19 +7658,19 @@
         <v>2643</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>854</v>
+        <v>567</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6646</v>
+        <v>6000</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1749182306417255</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05651666176040471</v>
+        <v>0.03749517807068577</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.439828541401796</v>
+        <v>0.3970604108724903</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -7679,19 +7679,19 @@
         <v>5169</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2235</v>
+        <v>2300</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9816</v>
+        <v>9694</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1684341724295545</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0728327805033009</v>
+        <v>0.0749446913777011</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3198620152757243</v>
+        <v>0.3158855909115064</v>
       </c>
     </row>
     <row r="17">
@@ -7708,19 +7708,19 @@
         <v>5982</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2743</v>
+        <v>2349</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10050</v>
+        <v>10117</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3840767287528012</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1760928017016134</v>
+        <v>0.1508188539045361</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6452426192465185</v>
+        <v>0.6494953740542898</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -7729,19 +7729,19 @@
         <v>10051</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6416</v>
+        <v>6730</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12575</v>
+        <v>12963</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6651191456473788</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4245604515973557</v>
+        <v>0.4453595030570807</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8321563459694405</v>
+        <v>0.8578783405993754</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -7750,19 +7750,19 @@
         <v>16033</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11564</v>
+        <v>10825</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21417</v>
+        <v>21269</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5224695623278789</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3768225517213555</v>
+        <v>0.3527670023992324</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.697918155671878</v>
+        <v>0.6930926479912574</v>
       </c>
     </row>
     <row r="18">
@@ -7854,19 +7854,19 @@
         <v>5252</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2211</v>
+        <v>2094</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9536</v>
+        <v>8818</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3141957827726772</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1322954484777474</v>
+        <v>0.1252853206240182</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5704908657673829</v>
+        <v>0.5275354717070992</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -7875,19 +7875,19 @@
         <v>2613</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1014</v>
+        <v>895</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5102</v>
+        <v>5524</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2240405961409988</v>
+        <v>0.2240405961409987</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08691533075207641</v>
+        <v>0.07671101965928172</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4374575190796294</v>
+        <v>0.4736862713931079</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -7896,19 +7896,19 @@
         <v>7865</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4284</v>
+        <v>4120</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11981</v>
+        <v>12901</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2771460263141543</v>
+        <v>0.2771460263141544</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1509567189948407</v>
+        <v>0.1451949849728821</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4221917354611506</v>
+        <v>0.4545911204757165</v>
       </c>
     </row>
     <row r="20">
@@ -7928,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4909</v>
+        <v>4653</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08943959960268928</v>
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2936709569576265</v>
+        <v>0.2783795852858754</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4524</v>
+        <v>4081</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.118721463960396</v>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3879201039936977</v>
+        <v>0.3499072195177058</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -7967,19 +7967,19 @@
         <v>2880</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7149</v>
+        <v>6382</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1014731384775712</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02448829458106732</v>
+        <v>0.02409042645649228</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2518968214209412</v>
+        <v>0.2248717387641365</v>
       </c>
     </row>
     <row r="21">
@@ -7996,19 +7996,19 @@
         <v>5706</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2285</v>
+        <v>2322</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11418</v>
+        <v>10737</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3413206196604523</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1366752110289041</v>
+        <v>0.1388917106580017</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6830467341631313</v>
+        <v>0.6423326789110597</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -8020,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3507</v>
+        <v>3111</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08653150439896001</v>
@@ -8029,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3007310875366181</v>
+        <v>0.2667912836848653</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -8038,19 +8038,19 @@
         <v>6715</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3234</v>
+        <v>3102</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>13312</v>
+        <v>13097</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2366136691076612</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1139688319872893</v>
+        <v>0.109316366444272</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4690698196538458</v>
+        <v>0.461519792204902</v>
       </c>
     </row>
     <row r="22">
@@ -8067,19 +8067,19 @@
         <v>4263</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1639</v>
+        <v>1435</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8213</v>
+        <v>8441</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2550439979641812</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09805156217410421</v>
+        <v>0.08585547189689625</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4913147490366758</v>
+        <v>0.5049931030143696</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -8088,19 +8088,19 @@
         <v>6656</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3871</v>
+        <v>3969</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9174</v>
+        <v>9097</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5707064354996453</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3319384460192832</v>
+        <v>0.340352519186403</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7866920488067212</v>
+        <v>0.7800761253566857</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -8109,19 +8109,19 @@
         <v>10919</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6331</v>
+        <v>6719</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15763</v>
+        <v>15993</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3847671661006133</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2230930206936507</v>
+        <v>0.2367639296929472</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5554526019568025</v>
+        <v>0.5635368909622306</v>
       </c>
     </row>
     <row r="23">
@@ -8213,19 +8213,19 @@
         <v>17774</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11441</v>
+        <v>11376</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26036</v>
+        <v>26081</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2894706052302422</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1863256537986536</v>
+        <v>0.1852817028672371</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4240293485132212</v>
+        <v>0.4247658522651627</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>16</v>
@@ -8234,19 +8234,19 @@
         <v>9806</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5842</v>
+        <v>6100</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15373</v>
+        <v>15129</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1941777276091613</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1156885512588528</v>
+        <v>0.1208003594908</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3044375455541387</v>
+        <v>0.2996048337293743</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>36</v>
@@ -8255,19 +8255,19 @@
         <v>27579</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>19932</v>
+        <v>20048</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>36802</v>
+        <v>36915</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2464667193278693</v>
+        <v>0.2464667193278692</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1781280200792954</v>
+        <v>0.1791576359615424</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3288829132061506</v>
+        <v>0.3298966650058424</v>
       </c>
     </row>
     <row r="25">
@@ -8284,19 +8284,19 @@
         <v>8016</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4049</v>
+        <v>4290</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13844</v>
+        <v>13395</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.130558344869432</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06594966756858993</v>
+        <v>0.06986102263866288</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2254652593261854</v>
+        <v>0.2181497007052406</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -8305,19 +8305,19 @@
         <v>11726</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7552</v>
+        <v>7619</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16997</v>
+        <v>17095</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2322033336238045</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1495427324360582</v>
+        <v>0.1508700302821683</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3365938452088055</v>
+        <v>0.3385334320762837</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>31</v>
@@ -8326,19 +8326,19 @@
         <v>19742</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13755</v>
+        <v>13938</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27621</v>
+        <v>26959</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1764288192224285</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1229239997139676</v>
+        <v>0.124555977561692</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2468343390365307</v>
+        <v>0.2409270825300635</v>
       </c>
     </row>
     <row r="26">
@@ -8355,19 +8355,19 @@
         <v>13704</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7974</v>
+        <v>7780</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>22641</v>
+        <v>22018</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2231867514051211</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1298597537174971</v>
+        <v>0.1267002884842493</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.368741830548703</v>
+        <v>0.3585881395168258</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -8376,19 +8376,19 @@
         <v>6667</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3600</v>
+        <v>3496</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11414</v>
+        <v>11669</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1320165645036833</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07129470853767639</v>
+        <v>0.06922700349146642</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2260335049303049</v>
+        <v>0.2310825775577037</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>26</v>
@@ -8397,19 +8397,19 @@
         <v>20370</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>13412</v>
+        <v>13469</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>29999</v>
+        <v>29391</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1820433583931326</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1198596077552382</v>
+        <v>0.1203682069228313</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2680937000076863</v>
+        <v>0.2626581079220703</v>
       </c>
     </row>
     <row r="27">
@@ -8426,19 +8426,19 @@
         <v>21907</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14701</v>
+        <v>14650</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>29116</v>
+        <v>29556</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3567842984952046</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2394284131022316</v>
+        <v>0.2386011937527801</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4741961354180787</v>
+        <v>0.4813625011210086</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>33</v>
@@ -8447,19 +8447,19 @@
         <v>22300</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>16672</v>
+        <v>16881</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>27509</v>
+        <v>28200</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4416023742633507</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.330144946624859</v>
+        <v>0.3342857268159487</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5447455338875085</v>
+        <v>0.5584294851195767</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>57</v>
@@ -8468,19 +8468,19 @@
         <v>44207</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>33527</v>
+        <v>34144</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>53261</v>
+        <v>53539</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3950611030565697</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2996168890236207</v>
+        <v>0.3051343251687289</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4759766575023294</v>
+        <v>0.4784573372304186</v>
       </c>
     </row>
     <row r="28">
